--- a/data/outputs/management_elsevier/34.xlsx
+++ b/data/outputs/management_elsevier/34.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS58"/>
+  <dimension ref="A1:BU58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -935,6 +945,12 @@
           <t>2-s2.0-84947487629</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>3799</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1152,6 +1168,12 @@
           <t>2-s2.0-84947494024</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>2790</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1372,6 +1394,12 @@
         <is>
           <t>2-s2.0-84947488768</t>
         </is>
+      </c>
+      <c r="BT4" t="n">
+        <v>1232</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1578,6 +1606,12 @@
           <t>2-s2.0-84947486026</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>2480</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1783,6 +1817,12 @@
           <t>2-s2.0-84947494963</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1627</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1991,6 +2031,12 @@
         <is>
           <t>2-s2.0-84947493451</t>
         </is>
+      </c>
+      <c r="BT7" t="n">
+        <v>622</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2193,6 +2239,12 @@
           <t>2-s2.0-84947490791</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>2605</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2397,6 +2449,12 @@
         <is>
           <t>2-s2.0-84947495000</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>920</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -2585,6 +2643,12 @@
       <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="inlineStr"/>
       <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2776,6 +2840,12 @@
       <c r="BQ11" t="inlineStr"/>
       <c r="BR11" t="inlineStr"/>
       <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2959,6 +3029,12 @@
       <c r="BQ12" t="inlineStr"/>
       <c r="BR12" t="inlineStr"/>
       <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3168,6 +3244,12 @@
           <t>2-s2.0-84937466812</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>10092</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3380,6 +3462,12 @@
         <is>
           <t>2-s2.0-84947437312</t>
         </is>
+      </c>
+      <c r="BT14" t="n">
+        <v>3846</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -3586,6 +3674,12 @@
           <t>2-s2.0-84947492097</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>3796</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3791,6 +3885,12 @@
           <t>2-s2.0-84947027088</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>4245</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4004,6 +4104,12 @@
           <t>2-s2.0-84947036599</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>1813</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4217,6 +4323,12 @@
           <t>2-s2.0-84946725179</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>3051</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4430,6 +4542,12 @@
           <t>2-s2.0-84947030194</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>3480</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4639,6 +4757,12 @@
           <t>2-s2.0-84940411479</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>3094</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4847,6 +4971,12 @@
         <is>
           <t>2-s2.0-84947023982</t>
         </is>
+      </c>
+      <c r="BT21" t="n">
+        <v>3093</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -5053,6 +5183,12 @@
           <t>2-s2.0-84947040150</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>2571</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5255,6 +5391,12 @@
         <is>
           <t>2-s2.0-84947035658</t>
         </is>
+      </c>
+      <c r="BT23" t="n">
+        <v>1366</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -5447,6 +5589,12 @@
       <c r="BQ24" t="inlineStr"/>
       <c r="BR24" t="inlineStr"/>
       <c r="BS24" t="inlineStr"/>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5636,6 +5784,12 @@
         <v>2770817</v>
       </c>
       <c r="BS25" t="inlineStr"/>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5825,6 +5979,12 @@
         <v>4389884</v>
       </c>
       <c r="BS26" t="inlineStr"/>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6030,6 +6190,12 @@
           <t>2-s2.0-84947023621</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>29670</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6243,6 +6409,12 @@
           <t>2-s2.0-84945339885</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>4613</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6455,6 +6627,12 @@
         <is>
           <t>2-s2.0-84946745815</t>
         </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>3421</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -6661,6 +6839,12 @@
           <t>2-s2.0-84946741648</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>2387</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6870,6 +7054,12 @@
           <t>2-s2.0-84928988406</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>5310</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7090,6 +7280,12 @@
         <is>
           <t>2-s2.0-84929049260</t>
         </is>
+      </c>
+      <c r="BT32" t="n">
+        <v>1307</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -7296,6 +7492,12 @@
           <t>2-s2.0-84929453589</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>2198</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7501,6 +7703,12 @@
           <t>2-s2.0-84929049581</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>2360</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7710,6 +7918,12 @@
           <t>2-s2.0-84929467208</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>3916</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7931,6 +8145,12 @@
           <t>2-s2.0-84929048405</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>4218</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8152,6 +8372,12 @@
           <t>2-s2.0-85027951001</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>3057</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8360,6 +8586,12 @@
         <is>
           <t>2-s2.0-84929045161</t>
         </is>
+      </c>
+      <c r="BT38" t="n">
+        <v>5478</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -8556,6 +8788,12 @@
       <c r="BQ39" t="inlineStr"/>
       <c r="BR39" t="inlineStr"/>
       <c r="BS39" t="inlineStr"/>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8743,6 +8981,12 @@
       <c r="BQ40" t="inlineStr"/>
       <c r="BR40" t="inlineStr"/>
       <c r="BS40" t="inlineStr"/>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8952,6 +9196,12 @@
           <t>2-s2.0-84929048157</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>20920</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9165,6 +9415,12 @@
           <t>2-s2.0-84929044706</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>28244</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9378,6 +9634,12 @@
           <t>2-s2.0-84929045863</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>5342</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9598,6 +9860,12 @@
         <is>
           <t>2-s2.0-84929047314</t>
         </is>
+      </c>
+      <c r="BT44" t="n">
+        <v>5550</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="45">
@@ -9804,6 +10072,12 @@
           <t>2-s2.0-84929045655</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>7468</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10013,6 +10287,12 @@
           <t>2-s2.0-84923203921</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>5609</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10229,6 +10509,12 @@
         <is>
           <t>2-s2.0-84923167828</t>
         </is>
+      </c>
+      <c r="BT47" t="n">
+        <v>5323</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="48">
@@ -10437,6 +10723,12 @@
           <t>2-s2.0-84923148287</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>2855</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10649,6 +10941,12 @@
         <is>
           <t>2-s2.0-84923148285</t>
         </is>
+      </c>
+      <c r="BT49" t="n">
+        <v>4248</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -10857,6 +11155,12 @@
           <t>2-s2.0-84923148288</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>4132</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11064,6 +11368,12 @@
           <t>2-s2.0-84923148280</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>3384</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11276,6 +11586,12 @@
         <is>
           <t>2-s2.0-84923148286</t>
         </is>
+      </c>
+      <c r="BT52" t="n">
+        <v>2906</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -11484,6 +11800,12 @@
           <t>2-s2.0-84923148283</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>3845</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11700,6 +12022,12 @@
         <is>
           <t>2-s2.0-84923186791</t>
         </is>
+      </c>
+      <c r="BT54" t="n">
+        <v>1179</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -11894,6 +12222,12 @@
         <v>4512628</v>
       </c>
       <c r="BS55" t="inlineStr"/>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12099,6 +12433,12 @@
           <t>2-s2.0-84923148284</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>8973</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12312,6 +12652,12 @@
           <t>2-s2.0-84996443303</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>7223</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12525,6 +12871,12 @@
           <t>2-s2.0-85027923342</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>2867</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
